--- a/Documentation/Finance.xlsx
+++ b/Documentation/Finance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10452" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10452" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Fingerprint Sensor</t>
   </si>
@@ -481,7 +481,7 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -579,6 +579,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="4" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -866,7 +867,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -1566,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1786,10 +1787,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1867,6 +1868,14 @@
         <v>1747</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="45">
+        <v>43712</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Finance.xlsx
+++ b/Documentation/Finance.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Google Drive\Cerberus\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Desktop\cerberus-web\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10452" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10452"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
   <si>
     <t>Fingerprint Sensor</t>
   </si>
@@ -133,45 +133,15 @@
     <t>to Vraj &amp; Ebi</t>
   </si>
   <si>
-    <t>ebi to vraj</t>
-  </si>
-  <si>
-    <t>new fps</t>
-  </si>
-  <si>
-    <t>half price</t>
-  </si>
-  <si>
-    <t>vraj</t>
-  </si>
-  <si>
-    <t>husein</t>
-  </si>
-  <si>
-    <t>ebi</t>
-  </si>
-  <si>
     <t>per person</t>
   </si>
   <si>
-    <t>old fps bought by ebi</t>
-  </si>
-  <si>
-    <t>ebi to husein</t>
-  </si>
-  <si>
     <t>done\</t>
   </si>
   <si>
-    <t>temp</t>
-  </si>
-  <si>
     <t>Project Cost</t>
   </si>
   <si>
-    <t>Wednesday</t>
-  </si>
-  <si>
     <t>Arduino Project FingerPrint Attendance w Ebenezer.</t>
   </si>
   <si>
@@ -221,13 +191,52 @@
   </si>
   <si>
     <t>Router</t>
+  </si>
+  <si>
+    <t>After Husein Joined</t>
+  </si>
+  <si>
+    <t>Raspberry Pi Zero v1.3 Development Board × 1</t>
+  </si>
+  <si>
+    <t>Black Aluminum Heatsink for Raspberry Pi × 1</t>
+  </si>
+  <si>
+    <t>Mini HDMI To HDMI Cable 1 Meter Round High-Quality Copper-Clad Steel Black × 1</t>
+  </si>
+  <si>
+    <t>2.8 inch SPI Touch Screen Module TFT Interface 240*320 × 1</t>
+  </si>
+  <si>
+    <t>Rpi, HeatSink, HDMI cable, SPI Touch Screen</t>
+  </si>
+  <si>
+    <t>Divided Price</t>
+  </si>
+  <si>
+    <t>Husein Joined</t>
+  </si>
+  <si>
+    <t>//Ebi's Personal Use</t>
+  </si>
+  <si>
+    <t>Device Cost (As per Quotation)</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Per-Person Loss</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,13 +268,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -280,7 +282,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -319,18 +321,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -474,14 +465,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,36 +546,46 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="8" xfId="4"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="8" xfId="3"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="9" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+  <cellStyles count="4">
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -864,20 +864,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" customWidth="1"/>
     <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
@@ -1384,40 +1385,40 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="31" t="s">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="36">
+      <c r="C33" s="33">
         <f>C13+C22+C31</f>
         <v>4809</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="36" t="s">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="33">
         <f>4809/2</f>
         <v>2404.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27"/>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="C39" s="37">
+      <c r="C39" s="34">
         <v>4809</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>32</v>
       </c>
@@ -1427,134 +1428,218 @@
       </c>
       <c r="C41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="32" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="31">
         <f>B41/2</f>
         <v>801.5</v>
       </c>
-      <c r="C42" s="32" t="s">
+      <c r="C42" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="36" t="s">
+      <c r="D42" s="32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B47" s="33">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="29"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B46" s="36"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="B47" s="36">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D48" s="34" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="34">
-        <f>1603-712.66</f>
-        <v>890.34</v>
-      </c>
-      <c r="F48" s="34">
-        <f>E48+750</f>
-        <v>1640.3400000000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="34">
-        <f>1603-712.66</f>
-        <v>890.34</v>
-      </c>
-      <c r="F49" s="34">
-        <f>E49+750</f>
-        <v>1640.3400000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="30">
-        <v>2138</v>
-      </c>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="B51" s="30">
-        <f>B50/3</f>
-        <v>712.66666666666663</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34">
-        <f>1603-712</f>
-        <v>891</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="30">
-        <f>B51</f>
-        <v>712.66666666666663</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35">
-        <v>2038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="30">
-        <v>1500</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35">
-        <f>SUM(F51:F53)</f>
-        <v>2929</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="30">
-        <f>B54/2</f>
-        <v>750</v>
+      <c r="G50" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="11">
+        <v>990</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="12">
+        <v>990</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G51" s="11">
+        <f>C51/3</f>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="11">
+        <v>49</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="12">
+        <v>49</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G52" s="11">
+        <f t="shared" ref="G52:G54" si="1">C52/3</f>
+        <v>16.333333333333332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="45">
+        <v>43735</v>
+      </c>
+      <c r="B53" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="46">
+        <v>120</v>
+      </c>
+      <c r="D53" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="46">
+        <v>120</v>
+      </c>
+      <c r="F53" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="11">
+        <v>990</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="12">
+        <v>990</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="11">
+        <f t="shared" si="1"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B56" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <f>SUM(C51:C54)</f>
+        <v>2149</v>
+      </c>
+      <c r="E56">
+        <f>SUM(E51:E54)</f>
+        <v>2149</v>
+      </c>
+      <c r="G56" s="44">
+        <f>SUM(G51:G54)</f>
+        <v>676.33333333333326</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="28">
+        <f>B41+G56</f>
+        <v>2279.333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B62" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <f>B58*3</f>
+        <v>6837.9999999999991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <f>C62-C63</f>
+        <v>2922.9999999999991</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65">
+        <f>C64/3</f>
+        <v>974.33333333333303</v>
       </c>
     </row>
   </sheetData>
@@ -1584,18 +1669,18 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="39">
+      <c r="A2" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="35">
         <v>861</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="A3" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="35">
         <v>1500</v>
       </c>
       <c r="G3">
@@ -1603,10 +1688,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="A4" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="35">
         <v>250</v>
       </c>
       <c r="F4">
@@ -1617,10 +1702,10 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="39">
+      <c r="A5" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="35">
         <v>148</v>
       </c>
       <c r="F5">
@@ -1631,10 +1716,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="39">
+      <c r="A6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="35">
         <v>2</v>
       </c>
       <c r="F6">
@@ -1645,10 +1730,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="39">
+      <c r="A7" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="35">
         <v>15</v>
       </c>
       <c r="F7">
@@ -1659,10 +1744,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="39">
+      <c r="A8" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="35">
         <v>100</v>
       </c>
       <c r="F8">
@@ -1673,10 +1758,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="39">
+      <c r="A9" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="35">
         <v>65</v>
       </c>
       <c r="F9">
@@ -1687,10 +1772,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="39">
+      <c r="A10" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="35">
         <v>110</v>
       </c>
       <c r="F10">
@@ -1701,10 +1786,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="39" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="39">
+      <c r="A11" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="35">
         <v>150</v>
       </c>
       <c r="F11">
@@ -1715,10 +1800,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="39" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="39">
+      <c r="A12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="35">
         <v>450</v>
       </c>
       <c r="F12">
@@ -1729,10 +1814,10 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="39" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="39">
+      <c r="A13" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="35">
         <v>50</v>
       </c>
       <c r="D13">
@@ -1747,10 +1832,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="44">
+      <c r="A14" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="39">
         <v>1299</v>
       </c>
       <c r="D14">
@@ -1767,10 +1852,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="B15" s="39">
+      <c r="A15" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="35">
         <v>250</v>
       </c>
     </row>
@@ -1787,93 +1872,85 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.21875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="38">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="42">
         <v>43586</v>
       </c>
-      <c r="B2" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="39">
+      <c r="B3" s="35">
         <v>2130</v>
       </c>
-      <c r="D2" s="39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="38">
+      <c r="C3" s="35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
         <v>43600</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="39">
+      <c r="B4" s="35">
         <v>417</v>
       </c>
-      <c r="D3" s="39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39" t="s">
+      <c r="C4" s="35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="40">
-        <f>SUM(C2:C3)</f>
+      <c r="B5" s="36">
+        <f>SUM(B3:B4)</f>
         <v>2547</v>
       </c>
-      <c r="D4" s="39"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="38">
+      <c r="C5" s="35"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="42">
         <v>43670</v>
       </c>
-      <c r="B5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="41">
+      <c r="B6" s="37">
         <v>-800</v>
       </c>
-      <c r="D5" s="39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="42" t="s">
+      <c r="C6" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="43">
-        <f>SUM(C4:C5)</f>
+      <c r="B7" s="38">
+        <f>SUM(B5:B6)</f>
         <v>1747</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="45">
-        <v>43712</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>47</v>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
+        <v>43735</v>
+      </c>
+      <c r="B8">
+        <v>2149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Finance.xlsx
+++ b/Documentation/Finance.xlsx
@@ -1,32 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Desktop\cerberus-web\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10452"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10455"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Finance" sheetId="1" r:id="rId1"/>
     <sheet name="Quotation" sheetId="2" r:id="rId2"/>
-    <sheet name="Vraj contri." sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
   <si>
     <t>Fingerprint Sensor</t>
   </si>
@@ -133,69 +122,15 @@
     <t>to Vraj &amp; Ebi</t>
   </si>
   <si>
-    <t>per person</t>
-  </si>
-  <si>
     <t>done\</t>
   </si>
   <si>
-    <t>Project Cost</t>
-  </si>
-  <si>
-    <t>Arduino Project FingerPrint Attendance w Ebenezer.</t>
-  </si>
-  <si>
-    <t>Paytm to Ebenezer (Project)</t>
-  </si>
-  <si>
-    <t>Received Project Payment from Husein</t>
-  </si>
-  <si>
-    <t>Arduino</t>
-  </si>
-  <si>
-    <t>FPS Module</t>
-  </si>
-  <si>
-    <t>Ethernet Module</t>
-  </si>
-  <si>
-    <t>SD-Card Module</t>
-  </si>
-  <si>
     <t>LEDs</t>
   </si>
   <si>
     <t>Buzzer</t>
   </si>
   <si>
-    <t>RTC Module</t>
-  </si>
-  <si>
-    <t>Battery Cell</t>
-  </si>
-  <si>
-    <t>Keypad Membrane Module</t>
-  </si>
-  <si>
-    <t>Jumper Wires</t>
-  </si>
-  <si>
-    <t>LCD Screen</t>
-  </si>
-  <si>
-    <t>Shipping Charges</t>
-  </si>
-  <si>
-    <t>Misc.</t>
-  </si>
-  <si>
-    <t>Router</t>
-  </si>
-  <si>
-    <t>After Husein Joined</t>
-  </si>
-  <si>
     <t>Raspberry Pi Zero v1.3 Development Board × 1</t>
   </si>
   <si>
@@ -208,9 +143,6 @@
     <t>2.8 inch SPI Touch Screen Module TFT Interface 240*320 × 1</t>
   </si>
   <si>
-    <t>Rpi, HeatSink, HDMI cable, SPI Touch Screen</t>
-  </si>
-  <si>
     <t>Divided Price</t>
   </si>
   <si>
@@ -227,16 +159,79 @@
   </si>
   <si>
     <t>Per-Person Loss</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>FPS</t>
+  </si>
+  <si>
+    <t>Ethernet</t>
+  </si>
+  <si>
+    <t>Button Cell</t>
+  </si>
+  <si>
+    <t>Box Strip</t>
+  </si>
+  <si>
+    <t>LCD</t>
+  </si>
+  <si>
+    <t>Rpi</t>
+  </si>
+  <si>
+    <t>HeatSink</t>
+  </si>
+  <si>
+    <t>Perf</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Keypad (new)</t>
+  </si>
+  <si>
+    <t>RTC (New) DS3231</t>
+  </si>
+  <si>
+    <t>reconciliation</t>
+  </si>
+  <si>
+    <t>Grand Total (Before Husein)</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>SD card</t>
+  </si>
+  <si>
+    <t>RTC DS3231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keypad </t>
+  </si>
+  <si>
+    <t>(Check sheet 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,7 +277,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -336,7 +331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,15 +453,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,7 +474,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,9 +542,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -557,30 +557,44 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="9" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -589,15 +603,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -644,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -679,7 +685,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -856,39 +862,39 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="39" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -904,7 +910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10">
       <c r="A2" s="10">
         <v>43571</v>
       </c>
@@ -925,7 +931,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10">
       <c r="A3" s="10">
         <v>43571</v>
       </c>
@@ -946,7 +952,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10">
       <c r="A4" s="10">
         <v>43572</v>
       </c>
@@ -967,7 +973,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10">
       <c r="A5" s="10">
         <v>43579</v>
       </c>
@@ -997,15 +1003,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10">
       <c r="A6" s="10">
         <v>43581</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="4">
-        <v>80</v>
+      <c r="C6" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -1018,7 +1024,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10">
       <c r="A7" s="10">
         <v>43581</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10">
       <c r="A8" s="14">
         <v>43584</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>-202.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10">
       <c r="A9" s="10">
         <v>43584</v>
       </c>
@@ -1081,7 +1087,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10">
       <c r="A10" s="10">
         <v>43587</v>
       </c>
@@ -1100,7 +1106,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1108,13 +1114,13 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="B13" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="21">
         <f>SUM(C2:C10)</f>
-        <v>3928</v>
+        <v>3848</v>
       </c>
       <c r="D13" s="17">
         <f>SUM(D2:D10)</f>
@@ -1129,8 +1135,8 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="15" spans="1:10">
       <c r="A15" s="10">
         <v>43596</v>
       </c>
@@ -1151,7 +1157,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10">
       <c r="A16" s="10">
         <v>43596</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6">
       <c r="A17" s="10">
         <v>43597</v>
       </c>
@@ -1193,7 +1199,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6">
       <c r="A18" s="10">
         <v>43600</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6">
       <c r="A19" s="10">
         <v>43600</v>
       </c>
@@ -1235,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
@@ -1252,9 +1258,11 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
+    <row r="23" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10">
+        <v>43603</v>
+      </c>
       <c r="B24" s="11" t="s">
         <v>26</v>
       </c>
@@ -1272,8 +1280,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:6">
+      <c r="A25" s="10">
+        <v>43603</v>
+      </c>
       <c r="B25" s="11" t="s">
         <v>22</v>
       </c>
@@ -1291,8 +1301,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
+    <row r="26" spans="1:6">
+      <c r="A26" s="10">
+        <v>43603</v>
+      </c>
       <c r="B26" s="11" t="s">
         <v>23</v>
       </c>
@@ -1310,13 +1322,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10">
+        <v>43603</v>
+      </c>
       <c r="B27" s="11" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" s="12">
         <v>10</v>
@@ -1326,11 +1340,13 @@
       </c>
       <c r="F27" s="11">
         <f>C27/2</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10">
+        <v>43603</v>
+      </c>
       <c r="B28" s="11" t="s">
         <v>29</v>
       </c>
@@ -1348,8 +1364,10 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10">
+        <v>43603</v>
+      </c>
       <c r="B29" s="25" t="s">
         <v>30</v>
       </c>
@@ -1367,13 +1385,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="B31" s="19" t="s">
         <v>20</v>
       </c>
       <c r="C31" s="21">
         <f>SUM(C24:C29)</f>
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D31" s="22">
         <f>SUM(D24:D29)</f>
@@ -1381,266 +1399,420 @@
       </c>
       <c r="F31" s="24">
         <f>SUM(F24:F29)</f>
-        <v>53.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="30" t="s">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="33" spans="1:8">
+      <c r="B33" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="32">
         <f>C13+C22+C31</f>
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="37" customFormat="1">
+      <c r="B34" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+      <c r="B35" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="33">
+        <f>C33+C34</f>
         <v>4809</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="33" t="s">
+    <row r="36" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="37" spans="1:8">
+      <c r="A37" s="26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="33">
-        <f>4809/2</f>
-        <v>2404.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="27"/>
-      <c r="B39" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="34">
-        <v>4809</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41" s="28">
+      <c r="B39" s="27">
         <f>4809/3</f>
         <v>1603</v>
       </c>
-      <c r="C41" s="11"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
+      <c r="C39" s="11"/>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="31">
-        <f>B41/2</f>
+      <c r="B40" s="30">
+        <f>B39/2</f>
         <v>801.5</v>
       </c>
-      <c r="C42" s="31" t="s">
+      <c r="C40" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="32" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B46" s="33"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="D40" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B47" s="33">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="28"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E43" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="10">
+      <c r="G43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="10">
         <v>43735</v>
       </c>
-      <c r="B51" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="11">
+      <c r="B44" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="11">
         <v>990</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E51" s="12">
+      <c r="D44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="12">
         <v>990</v>
       </c>
-      <c r="F51" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G51" s="11">
-        <f>C51/3</f>
+      <c r="F44" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="11">
+        <f>C44/3</f>
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="10">
+    <row r="45" spans="1:8">
+      <c r="A45" s="10">
         <v>43735</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" s="11">
+      <c r="B45" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="11">
         <v>49</v>
       </c>
-      <c r="D52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="12">
+      <c r="D45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="12">
         <v>49</v>
       </c>
-      <c r="F52" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G52" s="11">
-        <f t="shared" ref="G52:G54" si="1">C52/3</f>
+      <c r="F45" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="11">
+        <f t="shared" ref="G45:G47" si="1">C45/3</f>
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="45">
+    <row r="46" spans="1:8">
+      <c r="A46" s="35">
         <v>43735</v>
       </c>
-      <c r="B53" s="46" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" s="46">
+      <c r="B46" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="36">
         <v>120</v>
       </c>
-      <c r="D53" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="46">
+      <c r="D46" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="36">
         <v>120</v>
       </c>
-      <c r="F53" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>7</v>
-      </c>
-      <c r="H53" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
+      <c r="F46" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10">
         <v>43735</v>
       </c>
-      <c r="B54" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="11">
+      <c r="B47" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" s="11">
         <v>990</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="12">
+      <c r="D47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="12">
         <v>990</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="F47" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="11">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B56" s="43" t="s">
+    <row r="49" spans="1:9">
+      <c r="B49" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C56">
-        <f>SUM(C51:C54)</f>
+      <c r="C49" s="40">
+        <f>SUM(C44:C47)-120</f>
+        <v>2029</v>
+      </c>
+      <c r="E49">
+        <f>SUM(E44:E47)</f>
         <v>2149</v>
       </c>
-      <c r="E56">
-        <f>SUM(E51:E54)</f>
-        <v>2149</v>
-      </c>
-      <c r="G56" s="44">
-        <f>SUM(G51:G54)</f>
+      <c r="G49" s="42">
+        <f>SUM(G44:G47)</f>
         <v>676.33333333333326</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="11" t="s">
+    <row r="51" spans="1:9">
+      <c r="A51" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B58" s="28">
-        <f>B41+G56</f>
+      <c r="B51" s="41">
+        <f>B39+G49</f>
         <v>2279.333333333333</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="34" t="s">
+    <row r="54" spans="1:9">
+      <c r="A54" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="37"/>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" s="38">
+        <v>60</v>
+      </c>
+      <c r="D55" s="38">
+        <v>60</v>
+      </c>
+      <c r="E55" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="38">
+        <f>C55/3</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="C56" s="38">
+        <v>40</v>
+      </c>
+      <c r="D56" s="38">
+        <v>40</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="38">
+        <f t="shared" ref="G56:G59" si="2">C56/3</f>
+        <v>13.333333333333334</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B57" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" s="38">
+        <v>25</v>
+      </c>
+      <c r="D57" s="38">
+        <v>25</v>
+      </c>
+      <c r="E57" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="38">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="C58" s="38">
+        <v>390</v>
+      </c>
+      <c r="D58" s="38">
+        <v>390</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="38">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" s="10">
+        <v>43735</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="38">
+        <v>110</v>
+      </c>
+      <c r="D59" s="38">
+        <v>110</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="38">
+        <f t="shared" si="2"/>
+        <v>36.666666666666664</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="C61" s="40">
+        <f>SUM(C55:C59)</f>
+        <v>625</v>
+      </c>
+      <c r="G61" s="23">
+        <f>SUM(G55:G59)</f>
+        <v>208.33333333333334</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1">
+      <c r="B64" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C62">
-        <f>B58*3</f>
-        <v>6837.9999999999991</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B63" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63">
-        <v>3915</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B64" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64">
-        <f>C62-C63</f>
-        <v>2922.9999999999991</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="49">
+        <f>C35+C49+C61</f>
+        <v>7463</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="15.75" thickTop="1">
       <c r="B65" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="C65">
-        <f>C64/3</f>
-        <v>974.33333333333303</v>
-      </c>
+        <v>4419</v>
+      </c>
+      <c r="D65" s="45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="41">
+        <f>B51+G61</f>
+        <v>2487.6666666666665</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>46</v>
+      </c>
+      <c r="C67">
+        <f>C64-C65</f>
+        <v>3044</v>
+      </c>
+      <c r="H67" s="26"/>
+    </row>
+    <row r="68" spans="2:8" s="45" customFormat="1">
+      <c r="B68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68">
+        <f>C67/3</f>
+        <v>1014.6666666666666</v>
+      </c>
+      <c r="H68" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1649,308 +1821,216 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="35">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1500</v>
-      </c>
-      <c r="G3">
+    <row r="2" spans="1:3" s="43" customFormat="1">
+      <c r="A2" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="44">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="44">
+        <v>1</v>
+      </c>
+      <c r="C4" s="44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="44">
+        <v>1</v>
+      </c>
+      <c r="C5" s="44">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="44" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="44">
+        <v>1</v>
+      </c>
+      <c r="C6" s="44">
         <v>250</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="35">
+    <row r="7" spans="1:3">
+      <c r="A7" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="44">
+        <v>1</v>
+      </c>
+      <c r="C7" s="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="44">
+        <v>1</v>
+      </c>
+      <c r="C8" s="44">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="44">
+        <v>4</v>
+      </c>
+      <c r="C9" s="44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="44">
+        <v>1</v>
+      </c>
+      <c r="C10" s="44">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="44">
+        <v>1</v>
+      </c>
+      <c r="C11" s="44">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="44">
+        <v>1</v>
+      </c>
+      <c r="C12" s="44">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="44">
+        <v>1</v>
+      </c>
+      <c r="C13" s="44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="44">
+        <v>1</v>
+      </c>
+      <c r="C14" s="44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="47" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="44">
+        <v>1</v>
+      </c>
+      <c r="C15" s="44">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="44">
+        <v>1</v>
+      </c>
+      <c r="C16" s="44">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="25">
+        <v>1</v>
+      </c>
+      <c r="C17" s="25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="25">
+        <v>1</v>
+      </c>
+      <c r="C18" s="25">
         <v>250</v>
       </c>
-      <c r="F4">
-        <v>1500</v>
-      </c>
-      <c r="G4">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B5" s="35">
-        <v>148</v>
-      </c>
-      <c r="F5">
-        <v>2600</v>
-      </c>
-      <c r="G5">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="35">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
-      <c r="G6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="35">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="35">
-        <v>100</v>
-      </c>
-      <c r="F8">
-        <v>65</v>
-      </c>
-      <c r="G8">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="35">
-        <v>65</v>
-      </c>
-      <c r="F9">
-        <v>110</v>
-      </c>
-      <c r="G9">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="35">
-        <v>110</v>
-      </c>
-      <c r="F10">
-        <v>150</v>
-      </c>
-      <c r="G10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="35">
-        <v>150</v>
-      </c>
-      <c r="F11">
-        <v>450</v>
-      </c>
-      <c r="G11">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="35">
-        <v>450</v>
-      </c>
-      <c r="F12">
-        <v>50</v>
-      </c>
-      <c r="G12">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="35">
-        <v>50</v>
-      </c>
-      <c r="D13">
-        <f>4809-3951</f>
-        <v>858</v>
-      </c>
-      <c r="F13">
-        <v>250</v>
-      </c>
-      <c r="G13">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="39">
-        <v>1299</v>
-      </c>
-      <c r="D14">
-        <f>D13/3</f>
-        <v>286</v>
-      </c>
-      <c r="F14">
-        <f>SUM(F4:F13)</f>
-        <v>5290</v>
-      </c>
-      <c r="G14">
-        <f>SUM(G3:G13)</f>
-        <v>3940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="35">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <f>SUM(B2:B15)</f>
-        <v>5250</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.21875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="42">
-        <v>43586</v>
-      </c>
-      <c r="B3" s="35">
-        <v>2130</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="42">
-        <v>43600</v>
-      </c>
-      <c r="B4" s="35">
-        <v>417</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="36">
-        <f>SUM(B3:B4)</f>
-        <v>2547</v>
-      </c>
-      <c r="C5" s="35"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="42">
-        <v>43670</v>
-      </c>
-      <c r="B6" s="37">
-        <v>-800</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="38">
-        <f>SUM(B5:B6)</f>
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
-        <v>43735</v>
-      </c>
-      <c r="B8">
-        <v>2149</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="C19">
+        <f>SUM(C3:C18)</f>
+        <v>4370</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Finance.xlsx
+++ b/Documentation/Finance.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Desktop\cerberus-web\Documentation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10455"/>
   </bookViews>
@@ -10,7 +15,7 @@
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
     <sheet name="Quotation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -137,12 +142,6 @@
     <t>Black Aluminum Heatsink for Raspberry Pi × 1</t>
   </si>
   <si>
-    <t>Mini HDMI To HDMI Cable 1 Meter Round High-Quality Copper-Clad Steel Black × 1</t>
-  </si>
-  <si>
-    <t>2.8 inch SPI Touch Screen Module TFT Interface 240*320 × 1</t>
-  </si>
-  <si>
     <t>Divided Price</t>
   </si>
   <si>
@@ -225,13 +224,19 @@
   </si>
   <si>
     <t>(Check sheet 2)</t>
+  </si>
+  <si>
+    <t>Mini HDMI To HDMI Cable 1 Meter Round × 1</t>
+  </si>
+  <si>
+    <t>SPI Touch Screen 240*320 × 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -604,6 +609,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -862,35 +875,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -910,7 +924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>43571</v>
       </c>
@@ -931,7 +945,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>43571</v>
       </c>
@@ -952,7 +966,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43572</v>
       </c>
@@ -973,7 +987,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>43579</v>
       </c>
@@ -1003,7 +1017,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>43581</v>
       </c>
@@ -1011,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>7</v>
@@ -1024,7 +1038,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43581</v>
       </c>
@@ -1045,7 +1059,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>43584</v>
       </c>
@@ -1066,7 +1080,7 @@
         <v>-202.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>43584</v>
       </c>
@@ -1087,7 +1101,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>43587</v>
       </c>
@@ -1106,7 +1120,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1114,7 +1128,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1135,8 +1149,8 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1"/>
-    <row r="15" spans="1:10">
+    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>43596</v>
       </c>
@@ -1157,7 +1171,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>43596</v>
       </c>
@@ -1178,7 +1192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>43597</v>
       </c>
@@ -1199,7 +1213,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>43600</v>
       </c>
@@ -1220,7 +1234,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>43600</v>
       </c>
@@ -1241,7 +1255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
@@ -1258,8 +1272,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickTop="1"/>
-    <row r="24" spans="1:6">
+    <row r="23" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>43603</v>
       </c>
@@ -1280,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>43603</v>
       </c>
@@ -1301,7 +1315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>43603</v>
       </c>
@@ -1322,7 +1336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>43603</v>
       </c>
@@ -1343,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>43603</v>
       </c>
@@ -1364,7 +1378,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>43603</v>
       </c>
@@ -1385,7 +1399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B31" s="19" t="s">
         <v>20</v>
       </c>
@@ -1402,8 +1416,8 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickTop="1"/>
-    <row r="33" spans="1:8">
+    <row r="32" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B33" s="29" t="s">
         <v>21</v>
       </c>
@@ -1412,58 +1426,58 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="37" customFormat="1">
+    <row r="34" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="33">
         <f>C33+C34</f>
         <v>4809</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickTop="1"/>
-    <row r="37" spans="1:8">
-      <c r="A37" s="26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="11" t="s">
+    <row r="36" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="27">
+      <c r="C39" s="27">
         <f>4809/3</f>
         <v>1603</v>
       </c>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="30" t="s">
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="30">
-        <f>B39/2</f>
+      <c r="C40" s="30">
+        <f>C39/2</f>
         <v>801.5</v>
       </c>
-      <c r="C40" s="30" t="s">
+      <c r="D40" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="31" t="s">
+      <c r="E40" s="31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="28"/>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
@@ -1483,10 +1497,10 @@
         <v>31</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43735</v>
       </c>
@@ -1510,7 +1524,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>43735</v>
       </c>
@@ -1534,12 +1548,12 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="35">
         <v>43735</v>
       </c>
       <c r="B46" s="36" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C46" s="36">
         <v>120</v>
@@ -1557,15 +1571,15 @@
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>43735</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C47" s="11">
         <v>990</v>
@@ -1584,7 +1598,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" s="34" t="s">
         <v>20</v>
       </c>
@@ -1601,16 +1615,16 @@
         <v>676.33333333333326</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>32</v>
       </c>
       <c r="B51" s="41">
-        <f>B39+G49</f>
+        <f>C39+G49</f>
         <v>2279.333333333333</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>8</v>
       </c>
@@ -1630,16 +1644,16 @@
         <v>31</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I54" s="37"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>43735</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C55" s="38">
         <v>60</v>
@@ -1658,12 +1672,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>43735</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C56" s="38">
         <v>40</v>
@@ -1682,12 +1696,12 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>43735</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C57" s="38">
         <v>25</v>
@@ -1706,12 +1720,12 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="10">
         <v>43735</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C58" s="38">
         <v>390</v>
@@ -1730,12 +1744,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="10">
         <v>43735</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C59" s="38">
         <v>110</v>
@@ -1754,7 +1768,7 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C61" s="40">
         <f>SUM(C55:C59)</f>
         <v>625</v>
@@ -1764,8 +1778,8 @@
         <v>208.33333333333334</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1"/>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="33" t="s">
         <v>21</v>
       </c>
@@ -1774,18 +1788,18 @@
         <v>7463</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15.75" thickTop="1">
+    <row r="65" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C65">
         <v>4419</v>
       </c>
       <c r="D65" s="45" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
         <v>32</v>
       </c>
@@ -1794,9 +1808,9 @@
         <v>2487.6666666666665</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C67">
         <f>C64-C65</f>
@@ -1804,9 +1818,9 @@
       </c>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" s="45" customFormat="1">
+    <row r="68" spans="2:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C68">
         <f>C67/3</f>
@@ -1821,37 +1835,37 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="43" customFormat="1">
+    <row r="2" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="46" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
@@ -1862,7 +1876,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>37</v>
       </c>
@@ -1873,9 +1887,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" s="44">
         <v>1</v>
@@ -1884,9 +1898,9 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="44">
         <v>1</v>
@@ -1895,7 +1909,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="48" t="s">
         <v>29</v>
       </c>
@@ -1906,9 +1920,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="44" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B8" s="44">
         <v>1</v>
@@ -1917,9 +1931,9 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B9" s="44">
         <v>4</v>
@@ -1928,9 +1942,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B10" s="44">
         <v>1</v>
@@ -1939,9 +1953,9 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="44" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="44">
         <v>1</v>
@@ -1950,9 +1964,9 @@
         <v>990</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B12" s="44">
         <v>1</v>
@@ -1961,9 +1975,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B13" s="44">
         <v>1</v>
@@ -1972,9 +1986,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B14" s="44">
         <v>1</v>
@@ -1983,9 +1997,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="44">
         <v>1</v>
@@ -1994,9 +2008,9 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="44">
         <v>1</v>
@@ -2005,9 +2019,9 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="25">
         <v>1</v>
@@ -2016,9 +2030,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B18" s="25">
         <v>1</v>
@@ -2027,7 +2041,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19">
         <f>SUM(C3:C18)</f>
         <v>4370</v>

--- a/Documentation/Finance.xlsx
+++ b/Documentation/Finance.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10455"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
   <si>
     <t>Fingerprint Sensor</t>
   </si>
@@ -230,6 +230,12 @@
   </si>
   <si>
     <t>SPI Touch Screen 240*320 × 1</t>
+  </si>
+  <si>
+    <t>Acrylic Sheet</t>
+  </si>
+  <si>
+    <t>Sheet cutting</t>
   </si>
 </sst>
 </file>
@@ -282,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -346,6 +352,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -479,7 +497,7 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -600,6 +618,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -663,7 +685,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -698,7 +720,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -883,11 +905,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,7 +1810,7 @@
         <v>7463</v>
       </c>
     </row>
-    <row r="65" spans="2:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>43</v>
       </c>
@@ -1799,7 +1821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B66" s="38" t="s">
         <v>32</v>
       </c>
@@ -1808,7 +1830,7 @@
         <v>2487.6666666666665</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>44</v>
       </c>
@@ -1818,7 +1840,7 @@
       </c>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="2:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>45</v>
       </c>
@@ -1827,6 +1849,122 @@
         <v>1014.6666666666666</v>
       </c>
       <c r="H68" s="26"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10">
+        <v>43774</v>
+      </c>
+      <c r="B72" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="47">
+        <v>100</v>
+      </c>
+      <c r="D72" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="47">
+        <v>100</v>
+      </c>
+      <c r="F72" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="47">
+        <f>C72/3</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="10">
+        <v>43775</v>
+      </c>
+      <c r="B73" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" s="47">
+        <v>1</v>
+      </c>
+      <c r="D73" s="50"/>
+      <c r="E73" s="50"/>
+      <c r="F73" s="50"/>
+      <c r="G73" s="50"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C75" s="51">
+        <f>SUM(C72:C73)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="49">
+        <f>C35+C49+C61+C75</f>
+        <v>7564</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="45">
+        <v>4419</v>
+      </c>
+      <c r="D79" s="45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C80" s="52">
+        <f>C78/3</f>
+        <v>2521.3333333333335</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C81">
+        <f>C78-C79</f>
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C82">
+        <f>C81/3</f>
+        <v>1048.3333333333333</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/Finance.xlsx
+++ b/Documentation/Finance.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iamvr\Desktop\cerberus-web\Documentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Finance" sheetId="1" r:id="rId1"/>
     <sheet name="Quotation" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="73">
   <si>
     <t>Fingerprint Sensor</t>
   </si>
@@ -236,13 +231,16 @@
   </si>
   <si>
     <t>Sheet cutting</t>
+  </si>
+  <si>
+    <t>Box</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,7 +683,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -720,7 +718,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -897,22 +895,22 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J82"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H79" sqref="H79"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K72" sqref="K72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
@@ -926,7 +924,7 @@
     <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
         <v>8</v>
       </c>
@@ -946,7 +944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="10">
         <v>43571</v>
       </c>
@@ -967,7 +965,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="10">
         <v>43571</v>
       </c>
@@ -988,7 +986,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="10">
         <v>43572</v>
       </c>
@@ -1009,7 +1007,7 @@
         <v>810.5</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="10">
         <v>43579</v>
       </c>
@@ -1039,7 +1037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="10">
         <v>43581</v>
       </c>
@@ -1060,7 +1058,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="10">
         <v>43581</v>
       </c>
@@ -1081,7 +1079,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="14">
         <v>43584</v>
       </c>
@@ -1102,7 +1100,7 @@
         <v>-202.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="10">
         <v>43584</v>
       </c>
@@ -1123,7 +1121,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="10">
         <v>43587</v>
       </c>
@@ -1142,7 +1140,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -1150,7 +1148,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1">
       <c r="B13" t="s">
         <v>20</v>
       </c>
@@ -1171,8 +1169,8 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" thickTop="1"/>
+    <row r="15" spans="1:10">
       <c r="A15" s="10">
         <v>43596</v>
       </c>
@@ -1193,7 +1191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="10">
         <v>43596</v>
       </c>
@@ -1214,7 +1212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="10">
         <v>43597</v>
       </c>
@@ -1235,7 +1233,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="10">
         <v>43600</v>
       </c>
@@ -1256,7 +1254,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="10">
         <v>43600</v>
       </c>
@@ -1277,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15.75" thickBot="1">
       <c r="B22" s="19" t="s">
         <v>20</v>
       </c>
@@ -1294,8 +1292,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="24" spans="1:6">
       <c r="A24" s="10">
         <v>43603</v>
       </c>
@@ -1316,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="10">
         <v>43603</v>
       </c>
@@ -1337,7 +1335,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="10">
         <v>43603</v>
       </c>
@@ -1358,7 +1356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="10">
         <v>43603</v>
       </c>
@@ -1379,7 +1377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="10">
         <v>43603</v>
       </c>
@@ -1400,7 +1398,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="10">
         <v>43603</v>
       </c>
@@ -1421,7 +1419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15.75" thickBot="1">
       <c r="B31" s="19" t="s">
         <v>20</v>
       </c>
@@ -1438,8 +1436,8 @@
         <v>58.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" thickTop="1"/>
+    <row r="33" spans="1:8">
       <c r="B33" s="29" t="s">
         <v>21</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>4739</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="37" customFormat="1">
       <c r="B34" s="25" t="s">
         <v>61</v>
       </c>
@@ -1456,7 +1454,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" thickBot="1">
       <c r="B35" s="33" t="s">
         <v>62</v>
       </c>
@@ -1465,13 +1463,13 @@
         <v>4809</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15.75" thickTop="1"/>
+    <row r="38" spans="1:8">
       <c r="B38" s="26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="B39" s="11" t="s">
         <v>32</v>
       </c>
@@ -1481,7 +1479,7 @@
       </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="B40" s="30" t="s">
         <v>33</v>
       </c>
@@ -1496,10 +1494,10 @@
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="28"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="8" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1520,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="10">
         <v>43735</v>
       </c>
@@ -1546,7 +1544,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="10">
         <v>43735</v>
       </c>
@@ -1570,7 +1568,7 @@
         <v>16.333333333333332</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="35">
         <v>43735</v>
       </c>
@@ -1596,7 +1594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="10">
         <v>43735</v>
       </c>
@@ -1620,7 +1618,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="B49" s="34" t="s">
         <v>20</v>
       </c>
@@ -1637,7 +1635,7 @@
         <v>676.33333333333326</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="11" t="s">
         <v>32</v>
       </c>
@@ -1646,7 +1644,7 @@
         <v>2279.333333333333</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="8" t="s">
         <v>8</v>
       </c>
@@ -1670,7 +1668,7 @@
       </c>
       <c r="I54" s="37"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="10">
         <v>43735</v>
       </c>
@@ -1694,7 +1692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="10">
         <v>43735</v>
       </c>
@@ -1718,7 +1716,7 @@
         <v>13.333333333333334</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="10">
         <v>43735</v>
       </c>
@@ -1742,7 +1740,7 @@
         <v>8.3333333333333339</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="10">
         <v>43735</v>
       </c>
@@ -1766,7 +1764,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="10">
         <v>43735</v>
       </c>
@@ -1790,7 +1788,7 @@
         <v>36.666666666666664</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="C61" s="40">
         <f>SUM(C55:C59)</f>
         <v>625</v>
@@ -1800,8 +1798,8 @@
         <v>208.33333333333334</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="15.75" thickBot="1"/>
+    <row r="64" spans="1:9" ht="15.75" thickBot="1">
       <c r="B64" s="33" t="s">
         <v>21</v>
       </c>
@@ -1810,7 +1808,7 @@
         <v>7463</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="15.75" thickTop="1">
       <c r="B65" t="s">
         <v>43</v>
       </c>
@@ -1821,7 +1819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8">
       <c r="B66" s="38" t="s">
         <v>32</v>
       </c>
@@ -1830,7 +1828,7 @@
         <v>2487.6666666666665</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8">
       <c r="B67" t="s">
         <v>44</v>
       </c>
@@ -1840,7 +1838,7 @@
       </c>
       <c r="H67" s="26"/>
     </row>
-    <row r="68" spans="1:8" s="45" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="45" customFormat="1">
       <c r="B68" t="s">
         <v>45</v>
       </c>
@@ -1850,7 +1848,7 @@
       </c>
       <c r="H68" s="26"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8">
       <c r="A71" s="8" t="s">
         <v>8</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8">
       <c r="A72" s="10">
         <v>43774</v>
       </c>
@@ -1883,10 +1881,7 @@
       <c r="C72" s="47">
         <v>100</v>
       </c>
-      <c r="D72" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="E72" s="47">
+      <c r="D72" s="47">
         <v>100</v>
       </c>
       <c r="F72" s="47" t="s">
@@ -1897,7 +1892,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8">
       <c r="A73" s="10">
         <v>43775</v>
       </c>
@@ -1905,65 +1900,74 @@
         <v>71</v>
       </c>
       <c r="C73" s="47">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="D73" s="50"/>
-      <c r="E73" s="50"/>
+      <c r="E73" s="47">
+        <v>150</v>
+      </c>
       <c r="F73" s="50"/>
-      <c r="G73" s="50"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="50">
+        <f>C73/3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="C75" s="51">
         <f>SUM(C72:C73)</f>
-        <v>101</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>250</v>
+      </c>
+      <c r="G75" s="23">
+        <f>SUM(G72:G73)</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
       <c r="B78" s="33" t="s">
         <v>21</v>
       </c>
       <c r="C78" s="49">
         <f>C35+C49+C61+C75</f>
-        <v>7564</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>7713</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" thickTop="1">
       <c r="B79" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C79" s="45">
-        <v>4419</v>
+        <v>4620</v>
       </c>
       <c r="D79" s="45" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8">
       <c r="B80" s="47" t="s">
         <v>32</v>
       </c>
       <c r="C80" s="52">
         <f>C78/3</f>
-        <v>2521.3333333333335</v>
-      </c>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
       <c r="B81" s="53" t="s">
         <v>44</v>
       </c>
       <c r="C81">
         <f>C78-C79</f>
-        <v>3145</v>
-      </c>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+        <v>3093</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3">
       <c r="B82" s="45" t="s">
         <v>45</v>
       </c>
       <c r="C82">
         <f>C81/3</f>
-        <v>1048.3333333333333</v>
+        <v>1031</v>
       </c>
     </row>
   </sheetData>
@@ -1973,26 +1977,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="43" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="43" customFormat="1">
       <c r="A2" s="46" t="s">
         <v>47</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="44" t="s">
         <v>36</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="44" t="s">
         <v>37</v>
       </c>
@@ -2025,7 +2029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="44" t="s">
         <v>50</v>
       </c>
@@ -2036,7 +2040,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="44" t="s">
         <v>51</v>
       </c>
@@ -2047,7 +2051,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" s="48" t="s">
         <v>29</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" s="44" t="s">
         <v>52</v>
       </c>
@@ -2069,7 +2073,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" s="48" t="s">
         <v>53</v>
       </c>
@@ -2080,7 +2084,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" s="44" t="s">
         <v>54</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" s="44" t="s">
         <v>55</v>
       </c>
@@ -2102,7 +2106,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" s="44" t="s">
         <v>56</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" s="44" t="s">
         <v>57</v>
       </c>
@@ -2124,7 +2128,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" s="44" t="s">
         <v>58</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" s="47" t="s">
         <v>66</v>
       </c>
@@ -2146,7 +2150,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" s="47" t="s">
         <v>65</v>
       </c>
@@ -2157,7 +2161,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" s="25" t="s">
         <v>63</v>
       </c>
@@ -2168,7 +2172,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="A18" s="25" t="s">
         <v>64</v>
       </c>
@@ -2179,10 +2183,21 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>SUM(C3:C18)</f>
-        <v>4370</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="25">
+        <v>1</v>
+      </c>
+      <c r="C19" s="25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21">
+        <f>SUM(C3:C19)</f>
+        <v>4620</v>
       </c>
     </row>
   </sheetData>
